--- a/input/datamodel.xlsx
+++ b/input/datamodel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\pyCompare\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8548E79-F79E-44C2-9BAA-0C8F1D1CCEB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05830C1-DA57-4B0C-99F7-F8560B86D9E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28755" yWindow="75" windowWidth="28665" windowHeight="15600" xr2:uid="{3B9728C3-468A-4533-982E-E133CC7FF395}"/>
+    <workbookView xWindow="-28665" yWindow="0" windowWidth="28665" windowHeight="15600" xr2:uid="{3B9728C3-468A-4533-982E-E133CC7FF395}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Table</t>
   </si>
@@ -48,17 +48,35 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>ADDR</t>
+    <t>CUST_ADDR</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Line1</t>
+  </si>
+  <si>
+    <t>Line2</t>
+  </si>
+  <si>
+    <t>Line3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -400,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED96F08-3B37-45D2-B72F-A6159F1259B1}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,10 +447,35 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>